--- a/biology/Botanique/Hygrophore/Hygrophore.xlsx
+++ b/biology/Botanique/Hygrophore/Hygrophore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hygrophore est un nom vernaculaire ambigu désignant en français plusieurs champignons au sein de la famille des Hygrophoraceae.
 </t>
@@ -511,11 +523,13 @@
           <t>Étymologie et définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les hygrophores sont des champignons à lames de la famille des Hygrophoraceae. Ils se caractérisent par des spores blanches et un pied dépourvu d'anneau. Leur chapeau paraît humide ou visqueux. Cette particularité est à l'origine du nom, qui est issu du grec ancien et signifie « porteur d'eau »[1].
-Il s'agit d'une francisation du nom latin Hygrophorus créé en 1836 par le mycologue suédois Elias Magnus Fries pour classer ces champignons. Par la suite, le genre  Hygrophorus a subi de nombreux redécoupages et plusieurs espèces ont été transférées dans d'autres genres, notamment Hygrocybe. Mais les espèces ont gardé en français leur nom d'hygrophore[2].
-Dans les clés de détermination utilisées en mycologie, les hygrophores continuent de constituer un groupe distinct, bien que paraphylétique, qui se reconnaît par la texture cireuse des lames[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les hygrophores sont des champignons à lames de la famille des Hygrophoraceae. Ils se caractérisent par des spores blanches et un pied dépourvu d'anneau. Leur chapeau paraît humide ou visqueux. Cette particularité est à l'origine du nom, qui est issu du grec ancien et signifie « porteur d'eau ».
+Il s'agit d'une francisation du nom latin Hygrophorus créé en 1836 par le mycologue suédois Elias Magnus Fries pour classer ces champignons. Par la suite, le genre  Hygrophorus a subi de nombreux redécoupages et plusieurs espèces ont été transférées dans d'autres genres, notamment Hygrocybe. Mais les espèces ont gardé en français leur nom d'hygrophore.
+Dans les clés de détermination utilisées en mycologie, les hygrophores continuent de constituer un groupe distinct, bien que paraphylétique, qui se reconnaît par la texture cireuse des lames.
 </t>
         </is>
       </c>
@@ -544,25 +558,27 @@
           <t>Liste alphabétique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hygrophore à lames jaune soufre – Hygrophorus hypothejus[3]
-Hygrophore à odeur agréable – Hygrophorus agathosmus[1]
-Hygrophore à odeur de cossus – Hygrophorus cossus[3]
-Hygrophore bicolore – Hygrophorus persoonii[3]
-Hygrophore blanc d'ivoire – Hygrophorus eburneus[3]
-Hygrophore cocciné – Hygrocybe coccinea[3]
-Hygrophore conique – Hygrocybe conica[3]
-Hygrophore de l'office – Hygrophorus penarius[3]
-Hygrophore de mars – Hygrophorus marzuolus[1]
-Hygrophore des bois – Hygrophorus nemoreus[3]
-Hygrophore des poetes – Hygrophorus poetarum[3]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hygrophore à lames jaune soufre – Hygrophorus hypothejus
+Hygrophore à odeur agréable – Hygrophorus agathosmus
+Hygrophore à odeur de cossus – Hygrophorus cossus
+Hygrophore bicolore – Hygrophorus persoonii
+Hygrophore blanc d'ivoire – Hygrophorus eburneus
+Hygrophore cocciné – Hygrocybe coccinea
+Hygrophore conique – Hygrocybe conica
+Hygrophore de l'office – Hygrophorus penarius
+Hygrophore de mars – Hygrophorus marzuolus
+Hygrophore des bois – Hygrophorus nemoreus
+Hygrophore des poetes – Hygrophorus poetarum
 Hygrophore des prés – Hygrocybe pratensis
-Hygrophore écarlate – Hygrocybe coccinea[1]
-Hygrophore limace – Hygrophorus latitabundus[3]
-Hygrophore olivacé et blanc – Hygrophorus olivaceoalbus[3]
-Hygrophore perroquet – Hygrocybe psittacina[3]
-Hygrophore russule – Hygrophorus russula[3]
+Hygrophore écarlate – Hygrocybe coccinea
+Hygrophore limace – Hygrophorus latitabundus
+Hygrophore olivacé et blanc – Hygrophorus olivaceoalbus
+Hygrophore perroquet – Hygrocybe psittacina
+Hygrophore russule – Hygrophorus russula
 La russule hygrophore (Russula camarophylla) est ainsi nommée en raison de sa physionomie proche de celle des hygrophores.
 </t>
         </is>
